--- a/template_excel/data_guru_penilaian.xlsx
+++ b/template_excel/data_guru_penilaian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84259259259259" defaultRowHeight="14.4"/>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>20114</v>
+        <v>20111</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>20113</v>
+        <v>20111</v>
       </c>
       <c r="B3" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>

--- a/template_excel/data_guru_penilaian.xlsx
+++ b/template_excel/data_guru_penilaian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1433,19 +1433,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>20074</v>
+        <v>20114</v>
       </c>
       <c r="B2" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4">
-        <v>56.56</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5">
-        <v>45877</v>
+        <v>45894</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>6</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>20070</v>
+        <v>20113</v>
       </c>
       <c r="B3" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1467,7 +1467,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="5">
-        <v>45877</v>
+        <v>45894</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>8</v>
